--- a/datasets/Brasileirao/match_history/home_only/season-2023/historico.xlsx
+++ b/datasets/Brasileirao/match_history/home_only/season-2023/historico.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P290"/>
+  <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>194</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>172</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45057</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>168</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8453538346846587</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>159</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>151</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>138</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>116</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-07-15</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>103</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9021269734815165</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9157608767233256</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9277434863285529</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>60</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-09-02</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45171</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>54</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9474321065017983</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45201</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.9762857097579093</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>botafogo_rj</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>194</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>180</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>169</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>159</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>151</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>126</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>123</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8842636625608209</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>109</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>95</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9093729344682314</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45152</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>73</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9296008300257927</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>60</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>42</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9588697805724845</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9753099120283326</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>bragantino</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>194</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>180</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>169</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>166</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>144</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.865887748059205</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>123</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.8842636625608209</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>110</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>96</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>45152</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>73</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.9296008300257927</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>60</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>45184</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.9598291299477989</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>18</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>45218</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.9930244429332351</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>palmeiras</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2023-04-16</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>45032</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>193</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.8244819741391082</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>179</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.8361058993970355</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>169</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2023-05-21</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>45067</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>158</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8538497819684817</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>152</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>137</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>117</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.8895851931634113</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>96</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>74</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2023-08-26</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>45164</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>61</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.9408232397760097</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>45182</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>43</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.9579113900670306</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>26</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>flamengo</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>194</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>172</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>165</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>152</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>145</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>124</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>116</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>102</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>89</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45153</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>72</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.9305308958112057</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>60</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2023-09-02</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45171</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>54</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.9474321065017983</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>35</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.9656054162575665</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>18</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>ath_paranaense</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2023-04-16</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45032</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>193</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.8244819741391082</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>172</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>165</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2023-05-21</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>45067</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>158</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.8538497819684817</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>144</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.865887748059205</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5442,12 +5758,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>126</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5506,12 +5826,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>123</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.8842636625608209</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5570,12 +5894,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>109</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5634,12 +5962,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>96</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5698,12 +6030,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>74</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5762,12 +6098,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>60</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5826,12 +6166,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>53</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5890,12 +6234,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>35</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.9656054162575665</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5954,12 +6302,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>8</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6018,12 +6370,16 @@
           <t>gremio</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6082,12 +6438,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>194</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6146,12 +6506,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>180</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6210,12 +6574,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>166</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6274,12 +6642,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>151</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6338,12 +6710,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>138</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6402,12 +6778,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>116</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6466,12 +6846,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>110</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6530,12 +6914,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>89</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6594,12 +6982,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>74</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6658,12 +7050,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>60</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>45185</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6722,12 +7118,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>40</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.9607894391523232</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2023-09-23</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>45192</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6786,12 +7186,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>33</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.967538559589032</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6850,12 +7254,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>18</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6914,12 +7322,16 @@
           <t>atl_mineiro</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6978,12 +7390,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>187</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2023-05-06</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>45052</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7042,12 +7458,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>173</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.8411376148446232</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7106,12 +7526,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>166</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7170,12 +7594,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>144</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.865887748059205</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7234,12 +7662,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>127</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7298,12 +7730,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>124</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7362,12 +7798,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>109</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7426,12 +7866,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>102</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7490,12 +7934,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>89</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7554,12 +8002,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>82</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.9212719586963487</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7618,12 +8070,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>68</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7682,12 +8138,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>53</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2023-09-20</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7746,12 +8206,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>36</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.9646402934831231</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7810,12 +8274,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>18</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>45218</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7874,12 +8342,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.9930244429332351</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7938,12 +8410,16 @@
           <t>fluminense</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -8002,12 +8478,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>194</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -8066,12 +8546,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>180</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>45057</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8130,12 +8614,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>168</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.8453538346846587</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8194,12 +8682,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>152</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8258,12 +8750,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>145</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8322,12 +8818,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>124</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8386,12 +8886,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>109</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8450,12 +8954,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>102</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8514,12 +9022,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>89</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8578,12 +9090,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>74</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8642,12 +9158,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>60</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8706,12 +9226,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>42</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.9588697805724845</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8770,12 +9294,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>26</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8834,12 +9362,16 @@
           <t>fortaleza</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>18</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8898,12 +9430,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>187</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8962,12 +9498,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>172</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -9026,12 +9566,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>159</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -9090,12 +9634,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>152</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -9154,12 +9702,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>137</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -9218,12 +9770,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>127</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9282,12 +9838,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>117</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.8895851931634113</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9346,12 +9906,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>102</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9410,12 +9974,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>88</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.9157608767233256</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9474,12 +10042,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>81</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9538,12 +10110,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>68</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2023-09-20</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9602,12 +10178,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>36</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.9646402934831231</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2023-09-27</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9666,12 +10246,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>29</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.9714164644666048</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9730,12 +10314,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>26</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>45220</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9794,12 +10382,16 @@
           <t>sao_paulo</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.9950124791926823</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9858,12 +10450,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>186</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.8302735949819326</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9922,12 +10518,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>179</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.8361058993970355</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9986,12 +10586,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>169</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -10050,12 +10654,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>151</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -10114,12 +10722,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>137</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -10178,12 +10790,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>117</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.8895851931634113</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -10242,12 +10858,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>102</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10306,12 +10926,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>89</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -10370,12 +10994,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>82</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.9212719586963487</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -10434,12 +11062,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>68</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>45182</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -10498,12 +11130,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>43</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.9579113900670306</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10562,12 +11198,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>26</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2023-10-08</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>45207</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -10626,12 +11266,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>18</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.9821610323583008</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10690,12 +11334,16 @@
           <t>internacional</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>4</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10754,12 +11402,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>187</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10818,12 +11470,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>179</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.8361058993970355</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10882,12 +11538,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>169</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10946,12 +11606,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>152</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.8589882807411234</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -11010,12 +11674,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>126</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -11074,12 +11742,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>116</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -11138,12 +11810,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>110</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -11202,12 +11878,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>96</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -11266,12 +11946,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>81</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -11330,12 +12014,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>68</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>45184</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -11394,12 +12082,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>41</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.9598291299477989</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11458,12 +12150,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>26</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2023-10-14</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>45213</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -11522,12 +12218,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>12</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.9880717128619305</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>45220</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11586,12 +12286,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.9950124791926823</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -11650,12 +12354,16 @@
           <t>cuiaba</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11714,12 +12422,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>187</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.8294437363854039</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2023-05-06</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>45052</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11778,12 +12490,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>173</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.8411376148446232</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11842,12 +12558,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>169</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11906,12 +12626,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>157</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.8547040588176851</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11970,12 +12694,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>145</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -12034,12 +12762,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>127</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -12098,12 +12830,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>124</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -12162,12 +12898,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>102</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -12226,12 +12966,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>95</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.9093729344682314</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -12290,12 +13034,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>81</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -12354,12 +13102,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>68</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.9342604735772135</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -12418,12 +13170,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>53</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -12482,12 +13238,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>25</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.9753099120283326</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>45218</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12546,12 +13306,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>7</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.9930244429332351</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -12610,12 +13374,16 @@
           <t>cruzeiro</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2023-04-16</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>45032</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -12674,12 +13442,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>193</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.8244819741391082</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>45054</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -12738,12 +13510,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q192" t="n">
+        <v>171</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.8428215734716199</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12802,12 +13578,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q193" t="n">
+        <v>165</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -12866,12 +13646,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q194" t="n">
+        <v>151</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A195" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -12930,12 +13714,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q195" t="n">
+        <v>138</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="A196" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -12994,12 +13782,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q196" t="n">
+        <v>116</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.8904752232974726</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="A197" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -13058,12 +13850,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q197" t="n">
+        <v>89</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0.914845573574452</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A198" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -13122,12 +13918,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q198" t="n">
+        <v>74</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2023-08-26</t>
-        </is>
+      <c r="A199" s="2" t="n">
+        <v>45164</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -13186,12 +13986,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q199" t="n">
+        <v>61</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0.9408232397760097</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A200" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -13250,12 +14054,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q200" t="n">
+        <v>53</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
+      <c r="A201" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -13314,12 +14122,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q201" t="n">
+        <v>38</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0.9627129408911995</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
+      <c r="A202" s="2" t="n">
+        <v>45191</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -13378,12 +14190,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q202" t="n">
+        <v>34</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0.9665715046375066</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2023-10-07</t>
-        </is>
+      <c r="A203" s="2" t="n">
+        <v>45206</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -13442,12 +14258,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q203" t="n">
+        <v>19</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0.981179362242806</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A204" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -13506,12 +14326,16 @@
           <t>corinthians</t>
         </is>
       </c>
+      <c r="Q204" t="n">
+        <v>4</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2023-04-24</t>
-        </is>
+      <c r="A205" s="2" t="n">
+        <v>45040</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -13570,12 +14394,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q205" t="n">
+        <v>185</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0.8311042838521256</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A206" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -13634,12 +14462,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q206" t="n">
+        <v>172</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A207" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -13698,12 +14530,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q207" t="n">
+        <v>166</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A208" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -13762,12 +14598,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q208" t="n">
+        <v>159</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A209" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -13826,12 +14666,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q209" t="n">
+        <v>138</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A210" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -13890,12 +14734,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q210" t="n">
+        <v>127</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="A211" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -13954,12 +14802,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q211" t="n">
+        <v>117</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.8895851931634113</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A212" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -14018,12 +14870,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q212" t="n">
+        <v>96</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A213" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -14082,12 +14938,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q213" t="n">
+        <v>81</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="A214" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -14146,12 +15006,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q214" t="n">
+        <v>67</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.9351952013367766</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A215" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -14210,12 +15074,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q215" t="n">
+        <v>53</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
+      <c r="A216" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -14274,12 +15142,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q216" t="n">
+        <v>38</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.9627129408911995</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A217" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -14338,12 +15210,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q217" t="n">
+        <v>8</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>45220</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -14402,12 +15278,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q218" t="n">
+        <v>5</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.9950124791926823</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="A219" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -14466,12 +15346,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q219" t="n">
+        <v>186</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.8302735949819326</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A220" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -14530,12 +15414,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q220" t="n">
+        <v>180</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A221" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -14594,12 +15482,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q221" t="n">
+        <v>169</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A222" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -14658,12 +15550,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q222" t="n">
+        <v>159</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A223" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -14722,12 +15618,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q223" t="n">
+        <v>145</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A224" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -14786,12 +15686,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q224" t="n">
+        <v>127</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="A225" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -14850,12 +15754,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q225" t="n">
+        <v>123</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0.8842636625608209</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="A226" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -14914,12 +15822,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q226" t="n">
+        <v>109</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0.8967304174982355</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="A227" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -14978,12 +15890,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q227" t="n">
+        <v>95</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0.9093729344682314</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="A228" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -15042,12 +15958,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q228" t="n">
+        <v>82</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.9212719586963487</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="A229" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -15106,12 +16026,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q229" t="n">
+        <v>67</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0.9351952013367766</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="A230" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -15170,12 +16094,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q230" t="n">
+        <v>42</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0.9588697805724845</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A231" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -15234,12 +16162,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q231" t="n">
+        <v>25</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0.9753099120283326</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
+      <c r="A232" s="2" t="n">
+        <v>45218</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -15298,12 +16230,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q232" t="n">
+        <v>7</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0.9930244429332351</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2023-10-26</t>
-        </is>
+      <c r="A233" s="2" t="n">
+        <v>45225</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -15362,12 +16298,16 @@
           <t>santos</t>
         </is>
       </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="A234" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -15426,12 +16366,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q234" t="n">
+        <v>186</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0.8302735949819326</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A235" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -15490,12 +16434,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q235" t="n">
+        <v>172</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A236" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -15554,12 +16502,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q236" t="n">
+        <v>165</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="A237" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -15618,12 +16570,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q237" t="n">
+        <v>144</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0.865887748059205</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A238" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -15682,12 +16638,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q238" t="n">
+        <v>137</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2023-07-03</t>
-        </is>
+      <c r="A239" s="2" t="n">
+        <v>45110</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -15746,12 +16706,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q239" t="n">
+        <v>115</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0.8913661439068313</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2023-07-17</t>
-        </is>
+      <c r="A240" s="2" t="n">
+        <v>45124</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -15810,12 +16774,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q240" t="n">
+        <v>101</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0.9039330328858641</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="A241" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -15874,12 +16842,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q241" t="n">
+        <v>88</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0.9157608767233256</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="A242" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -15938,12 +16910,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q242" t="n">
+        <v>82</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0.9212719586963487</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
+      <c r="A243" s="2" t="n">
+        <v>45159</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -16002,12 +16978,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q243" t="n">
+        <v>66</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0.9361308642916188</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2023-09-02</t>
-        </is>
+      <c r="A244" s="2" t="n">
+        <v>45171</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -16066,12 +17046,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q244" t="n">
+        <v>54</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0.9474321065017983</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2023-09-20</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -16130,12 +17114,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q245" t="n">
+        <v>36</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0.9646402934831231</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2023-10-07</t>
-        </is>
+      <c r="A246" s="2" t="n">
+        <v>45206</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -16194,12 +17182,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q246" t="n">
+        <v>19</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0.981179362242806</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A247" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -16258,12 +17250,16 @@
           <t>goias</t>
         </is>
       </c>
+      <c r="Q247" t="n">
+        <v>8</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="A248" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -16322,12 +17318,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q248" t="n">
+        <v>186</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0.8302735949819326</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
+      <c r="A249" s="2" t="n">
+        <v>45047</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -16386,12 +17386,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q249" t="n">
+        <v>178</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0.8369424234887681</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A250" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -16450,12 +17454,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q250" t="n">
+        <v>165</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2023-06-05</t>
-        </is>
+      <c r="A251" s="2" t="n">
+        <v>45082</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -16514,12 +17522,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q251" t="n">
+        <v>143</v>
+      </c>
+      <c r="R251" t="n">
+        <v>0.8667540688954889</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A252" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -16578,12 +17590,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q252" t="n">
+        <v>126</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2023-06-26</t>
-        </is>
+      <c r="A253" s="2" t="n">
+        <v>45103</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -16642,12 +17658,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q253" t="n">
+        <v>122</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0.8851483685026271</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A254" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -16706,12 +17726,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q254" t="n">
+        <v>110</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="A255" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -16770,12 +17794,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q255" t="n">
+        <v>95</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0.9093729344682314</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A256" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -16834,12 +17862,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q256" t="n">
+        <v>81</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="A257" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -16898,12 +17930,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q257" t="n">
+        <v>67</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0.9351952013367766</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
+      <c r="A258" s="2" t="n">
+        <v>45185</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -16962,12 +17998,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q258" t="n">
+        <v>40</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0.9607894391523232</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
+      <c r="A259" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -17026,12 +18066,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q259" t="n">
+        <v>35</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0.9656054162575665</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2023-10-07</t>
-        </is>
+      <c r="A260" s="2" t="n">
+        <v>45206</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -17090,12 +18134,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q260" t="n">
+        <v>19</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.981179362242806</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A261" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -17154,12 +18202,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q261" t="n">
+        <v>8</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2023-10-26</t>
-        </is>
+      <c r="A262" s="2" t="n">
+        <v>45225</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -17218,12 +18270,16 @@
           <t>vasco_da_gama</t>
         </is>
       </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="A263" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -17282,12 +18338,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q263" t="n">
+        <v>186</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0.8302735949819326</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="A264" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -17346,12 +18406,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q264" t="n">
+        <v>180</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0.835270211411272</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="A265" s="2" t="n">
+        <v>45057</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -17410,12 +18474,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q265" t="n">
+        <v>168</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0.8453538346846587</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A266" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -17474,12 +18542,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q266" t="n">
+        <v>159</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A267" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -17538,12 +18610,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q267" t="n">
+        <v>138</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="A268" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -17602,12 +18678,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q268" t="n">
+        <v>126</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0.8816148467834161</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A269" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -17666,12 +18746,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q269" t="n">
+        <v>110</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
+      <c r="A270" s="2" t="n">
+        <v>45131</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -17730,12 +18814,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q270" t="n">
+        <v>94</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0.910282762240767</v>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A271" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -17794,12 +18882,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q271" t="n">
+        <v>81</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -17858,12 +18950,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q272" t="n">
+        <v>67</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0.9351952013367766</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="A273" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -17922,12 +19018,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q273" t="n">
+        <v>42</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0.9588697805724845</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
+      <c r="A274" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -17986,12 +19086,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q274" t="n">
+        <v>25</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0.9753099120283326</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A275" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -18050,12 +19154,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q275" t="n">
+        <v>8</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2023-10-22</t>
-        </is>
+      <c r="A276" s="2" t="n">
+        <v>45221</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -18114,12 +19222,16 @@
           <t>coritiba</t>
         </is>
       </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0.9960079893439915</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A277" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -18178,12 +19290,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q277" t="n">
+        <v>194</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A278" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -18242,12 +19358,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q278" t="n">
+        <v>172</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="A279" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -18306,12 +19426,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q279" t="n">
+        <v>165</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0.8478937040879159</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A280" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -18370,12 +19494,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q280" t="n">
+        <v>159</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A281" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -18434,12 +19562,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q281" t="n">
+        <v>145</v>
+      </c>
+      <c r="R281" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="A282" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -18498,12 +19630,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q282" t="n">
+        <v>137</v>
+      </c>
+      <c r="R282" t="n">
+        <v>0.8719702261321094</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="A283" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -18562,12 +19698,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q283" t="n">
+        <v>123</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0.8842636625608209</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="A284" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -18626,12 +19766,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q284" t="n">
+        <v>88</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0.9157608767233256</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A285" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -18690,12 +19834,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q285" t="n">
+        <v>74</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A286" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -18754,12 +19902,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q286" t="n">
+        <v>60</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A287" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -18818,12 +19970,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q287" t="n">
+        <v>53</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2023-09-19</t>
-        </is>
+      <c r="A288" s="2" t="n">
+        <v>45188</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -18882,12 +20038,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q288" t="n">
+        <v>37</v>
+      </c>
+      <c r="R288" t="n">
+        <v>0.9636761353490535</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
+      <c r="A289" s="2" t="n">
+        <v>45194</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -18946,12 +20106,16 @@
           <t>america_mg</t>
         </is>
       </c>
+      <c r="Q289" t="n">
+        <v>31</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0.9694755730760259</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A290" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -19009,6 +20173,12 @@
         <is>
           <t>america_mg</t>
         </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>8</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0.9920319148370607</v>
       </c>
     </row>
   </sheetData>
